--- a/data/trans_orig/P57C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2424</v>
+        <v>2800</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001509418860028698</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00766980061074842</v>
+        <v>0.008858841729870259</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2663</v>
+        <v>2693</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.000751399344900788</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004194438618595839</v>
+        <v>0.004241057388675628</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>13208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7097</v>
+        <v>7282</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21520</v>
+        <v>21599</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04142578086492432</v>
+        <v>0.04142578086492433</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02225777725857454</v>
+        <v>0.02283968119455104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06749248075123226</v>
+        <v>0.06774035012221025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -825,19 +825,19 @@
         <v>16235</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10808</v>
+        <v>11363</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28300</v>
+        <v>27416</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05136728039882756</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03419705955281611</v>
+        <v>0.03595286813423047</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08953852051975923</v>
+        <v>0.0867420446367292</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -846,19 +846,19 @@
         <v>29444</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20581</v>
+        <v>21169</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41565</v>
+        <v>43930</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04637472938738042</v>
+        <v>0.04637472938738041</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03241594420233004</v>
+        <v>0.03334168226212932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06546604142968919</v>
+        <v>0.06919133198966704</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>40520</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29145</v>
+        <v>29927</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52737</v>
+        <v>52399</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1270841765457393</v>
+        <v>0.1270841765457394</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09140705643401736</v>
+        <v>0.09386135793388875</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1654002061150623</v>
+        <v>0.1643403962836776</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>101</v>
@@ -896,19 +896,19 @@
         <v>55790</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46555</v>
+        <v>45848</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66989</v>
+        <v>67383</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1765157584538405</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1472982844427157</v>
+        <v>0.1450596051383729</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2119502066142146</v>
+        <v>0.2131963092588481</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>148</v>
@@ -917,19 +917,19 @@
         <v>96310</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>81559</v>
+        <v>82917</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111922</v>
+        <v>113152</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1516915663476997</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1284584603342184</v>
+        <v>0.1305971196615335</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1762808644046583</v>
+        <v>0.1782190617467635</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>223759</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>207353</v>
+        <v>206696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>240045</v>
+        <v>239070</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7017800899086344</v>
+        <v>0.7017800899086345</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6503266260159992</v>
+        <v>0.6482661491445136</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7528590782972139</v>
+        <v>0.7497994457079303</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>340</v>
@@ -967,19 +967,19 @@
         <v>202214</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187085</v>
+        <v>188764</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>214941</v>
+        <v>215712</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6397947763137387</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5919256854317017</v>
+        <v>0.5972401686836961</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6800613641989721</v>
+        <v>0.6825000668117226</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>566</v>
@@ -988,19 +988,19 @@
         <v>425973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>402447</v>
+        <v>403544</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>447563</v>
+        <v>446646</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6709233640109675</v>
+        <v>0.6709233640109674</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6338692951838479</v>
+        <v>0.6355961770212659</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7049286192555025</v>
+        <v>0.7034838545686518</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>41357</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31220</v>
+        <v>31059</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53882</v>
+        <v>55096</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1297099526807019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09791661740016407</v>
+        <v>0.0974098738409578</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1689924611159632</v>
+        <v>0.1727975214234253</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -1038,19 +1038,19 @@
         <v>41345</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32533</v>
+        <v>32675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53624</v>
+        <v>52996</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1308127659735646</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1029326895171501</v>
+        <v>0.1033828980174543</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1696619855622518</v>
+        <v>0.1676767765637142</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>112</v>
@@ -1059,19 +1059,19 @@
         <v>82702</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>66929</v>
+        <v>67775</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>98291</v>
+        <v>98429</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1302589409090517</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1054153380121134</v>
+        <v>0.1067482249557108</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1548111256152044</v>
+        <v>0.1550286431622587</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6690</v>
+        <v>7673</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004055673055097362</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01237118558923627</v>
+        <v>0.01418787976277505</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7611</v>
+        <v>7697</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002048936203883257</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00710974123770881</v>
+        <v>0.007190469585996122</v>
       </c>
     </row>
     <row r="11">
@@ -1226,19 +1226,19 @@
         <v>10449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4609</v>
+        <v>3901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21800</v>
+        <v>22626</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0197273302893803</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008701798759782683</v>
+        <v>0.00736560402882642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04115836103119506</v>
+        <v>0.04271757943330128</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1247,19 +1247,19 @@
         <v>9129</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5468</v>
+        <v>5257</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15524</v>
+        <v>14705</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01688127693506443</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01011040356757337</v>
+        <v>0.009720451903139762</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02870613312282672</v>
+        <v>0.02719196237632692</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -1268,19 +1268,19 @@
         <v>19578</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11923</v>
+        <v>11925</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32454</v>
+        <v>32185</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01828949699349566</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01113815498144328</v>
+        <v>0.01113971791452507</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0303181137074691</v>
+        <v>0.03006675783051809</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>37083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24279</v>
+        <v>24801</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55689</v>
+        <v>57365</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07001194433871166</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04583893290672231</v>
+        <v>0.0468247893414247</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1051402196263951</v>
+        <v>0.1083056450064402</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>74</v>
@@ -1318,19 +1318,19 @@
         <v>50984</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40651</v>
+        <v>39403</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64593</v>
+        <v>63609</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09427511677067446</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07516785513401347</v>
+        <v>0.07286142039655338</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.119440453593706</v>
+        <v>0.1176203849885445</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>100</v>
@@ -1339,19 +1339,19 @@
         <v>88066</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71011</v>
+        <v>70938</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>108482</v>
+        <v>107539</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08226975993221179</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06633683060653739</v>
+        <v>0.06626906413077145</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1013415816727225</v>
+        <v>0.100460988662367</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>279010</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>247378</v>
+        <v>249261</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>306610</v>
+        <v>309097</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5267726948051158</v>
+        <v>0.5267726948051159</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4670506084364927</v>
+        <v>0.4706051552346129</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5788807866554602</v>
+        <v>0.5835770536422591</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>418</v>
@@ -1389,19 +1389,19 @@
         <v>317126</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>295878</v>
+        <v>297793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>335880</v>
+        <v>337940</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5864032791714987</v>
+        <v>0.5864032791714988</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5471138339522182</v>
+        <v>0.5506553744979581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6210830646162666</v>
+        <v>0.6248922483815612</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>628</v>
@@ -1410,19 +1410,19 @@
         <v>596136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>558987</v>
+        <v>561218</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>633535</v>
+        <v>632491</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5568982156513873</v>
+        <v>0.5568982156513872</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5221951331113125</v>
+        <v>0.5242792232280302</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5918359384980715</v>
+        <v>0.5908611292099109</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>203118</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174950</v>
+        <v>174761</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>235377</v>
+        <v>232472</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3834880305667922</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3303063429434577</v>
+        <v>0.3299499665697129</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4443927091486683</v>
+        <v>0.438908227648258</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>202</v>
@@ -1460,19 +1460,19 @@
         <v>161366</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>143037</v>
+        <v>142025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>181413</v>
+        <v>179918</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.298384654067665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2644928348258109</v>
+        <v>0.2626207666232488</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3354534593327051</v>
+        <v>0.3326902135871999</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>340</v>
@@ -1481,19 +1481,19 @@
         <v>364484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>330252</v>
+        <v>325220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>400779</v>
+        <v>400551</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3404935912190221</v>
+        <v>0.340493591219022</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3085150589135837</v>
+        <v>0.3038139371037996</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3744001098447214</v>
+        <v>0.3741873768553173</v>
       </c>
     </row>
     <row r="15">
@@ -1585,19 +1585,19 @@
         <v>16824</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10523</v>
+        <v>10068</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25409</v>
+        <v>25964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05359411209096405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03352326760226582</v>
+        <v>0.03207225734056557</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08094109881384771</v>
+        <v>0.08270863388600989</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1606,19 +1606,19 @@
         <v>17418</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12203</v>
+        <v>12831</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24212</v>
+        <v>25067</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04920942096750083</v>
+        <v>0.04920942096750081</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03447765912701378</v>
+        <v>0.03625137781737695</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06840486096826573</v>
+        <v>0.07082115485542387</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -1627,19 +1627,19 @@
         <v>34242</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26224</v>
+        <v>25373</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45107</v>
+        <v>44657</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05127034108801452</v>
+        <v>0.05127034108801451</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03926559336801237</v>
+        <v>0.03799162955152778</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06753909528003689</v>
+        <v>0.06686565511073081</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>21236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14418</v>
+        <v>14288</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30678</v>
+        <v>30979</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06764916682097336</v>
+        <v>0.06764916682097337</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04592897306451946</v>
+        <v>0.0455138239104986</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09772519464310889</v>
+        <v>0.09868533890434081</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -1677,19 +1677,19 @@
         <v>28533</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21500</v>
+        <v>21693</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37509</v>
+        <v>36937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08061283629567531</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06074178574109322</v>
+        <v>0.06128855275018016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1059730229772212</v>
+        <v>0.1043557779195723</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>80</v>
@@ -1698,19 +1698,19 @@
         <v>49769</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39421</v>
+        <v>40159</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>61326</v>
+        <v>61601</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07451957077164902</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05902460079186842</v>
+        <v>0.06012970980055407</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09182344389635963</v>
+        <v>0.09223553666970512</v>
       </c>
     </row>
     <row r="18">
@@ -1727,19 +1727,19 @@
         <v>53146</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>41196</v>
+        <v>41945</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>66554</v>
+        <v>65827</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1693013982981806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1312327726793292</v>
+        <v>0.1336185795106677</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2120126172338967</v>
+        <v>0.2096967453198836</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>99</v>
@@ -1748,19 +1748,19 @@
         <v>63665</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51605</v>
+        <v>52555</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75929</v>
+        <v>76910</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1798673039192079</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1457962007490153</v>
+        <v>0.1484806805254018</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2145178733049761</v>
+        <v>0.2172889895644635</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>166</v>
@@ -1769,19 +1769,19 @@
         <v>116811</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>99806</v>
+        <v>101219</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>135464</v>
+        <v>135671</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1749010504539866</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1494392207256275</v>
+        <v>0.1515558707527548</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2028303544063531</v>
+        <v>0.2031401185128146</v>
       </c>
     </row>
     <row r="19">
@@ -1798,19 +1798,19 @@
         <v>91736</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>77047</v>
+        <v>76643</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108451</v>
+        <v>108310</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.292231239083367</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2454393762921576</v>
+        <v>0.2441516637599234</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3454779289548798</v>
+        <v>0.345027926818547</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>159</v>
@@ -1819,19 +1819,19 @@
         <v>103732</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>88693</v>
+        <v>89608</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117979</v>
+        <v>117108</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2930683987788621</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2505790274924318</v>
+        <v>0.2531640448368572</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3333173862812182</v>
+        <v>0.3308568438129254</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>267</v>
@@ -1840,19 +1840,19 @@
         <v>195469</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>175810</v>
+        <v>175178</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>217662</v>
+        <v>217374</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2926749117094317</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.26324041013584</v>
+        <v>0.2622941461033984</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3259046840828775</v>
+        <v>0.325473345315141</v>
       </c>
     </row>
     <row r="20">
@@ -1869,19 +1869,19 @@
         <v>130973</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114278</v>
+        <v>113461</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>148218</v>
+        <v>146938</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4172240837065149</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3640415600469556</v>
+        <v>0.3614359943875839</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4721566553051922</v>
+        <v>0.4680800955879633</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>191</v>
@@ -1890,19 +1890,19 @@
         <v>140605</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123816</v>
+        <v>125000</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>157076</v>
+        <v>157754</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3972420400387539</v>
+        <v>0.3972420400387538</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3498101131824164</v>
+        <v>0.3531541619623497</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4437777800300777</v>
+        <v>0.4456921942494892</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>323</v>
@@ -1911,19 +1911,19 @@
         <v>271578</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>248505</v>
+        <v>248413</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>294404</v>
+        <v>293526</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.406634125976918</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3720871408631166</v>
+        <v>0.3719490374111281</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4408104546006494</v>
+        <v>0.4394967834865353</v>
       </c>
     </row>
     <row r="21">
@@ -2015,19 +2015,19 @@
         <v>13428</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6110</v>
+        <v>6733</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25935</v>
+        <v>26492</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03612905141551922</v>
+        <v>0.03612905141551921</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01643793867016629</v>
+        <v>0.01811490226320198</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06977800286998789</v>
+        <v>0.07127764304484607</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2036,19 +2036,19 @@
         <v>16903</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10894</v>
+        <v>10865</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29381</v>
+        <v>31412</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04033154115204287</v>
+        <v>0.04033154115204288</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02599246185598927</v>
+        <v>0.02592547604417455</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07010507878343265</v>
+        <v>0.07494918003427357</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -2057,19 +2057,19 @@
         <v>30331</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19806</v>
+        <v>19896</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46178</v>
+        <v>46213</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03835632172009958</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02504651569716496</v>
+        <v>0.02516007082665383</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05839577757584525</v>
+        <v>0.05844012204721709</v>
       </c>
     </row>
     <row r="23">
@@ -2086,19 +2086,19 @@
         <v>8955</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3652</v>
+        <v>4109</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17427</v>
+        <v>17969</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02409459357077958</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009824776140629266</v>
+        <v>0.01105631103455512</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04688660995558878</v>
+        <v>0.04834626429180336</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>41</v>
@@ -2107,19 +2107,19 @@
         <v>25197</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17173</v>
+        <v>18144</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>33466</v>
+        <v>34442</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06012110994182823</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04097466364803361</v>
+        <v>0.04329348037429301</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07985243644582558</v>
+        <v>0.0821793631347684</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>49</v>
@@ -2128,19 +2128,19 @@
         <v>34152</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>24274</v>
+        <v>25748</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>45414</v>
+        <v>47380</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04318822499439635</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03069641374016914</v>
+        <v>0.03256032824201695</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0574297649966858</v>
+        <v>0.05991574008399141</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2157,19 @@
         <v>58768</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44389</v>
+        <v>43886</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>76252</v>
+        <v>77112</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1581153118771014</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1194290913523433</v>
+        <v>0.1180752841794703</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2051562091986115</v>
+        <v>0.2074711329401251</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>122</v>
@@ -2178,19 +2178,19 @@
         <v>68715</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55784</v>
+        <v>56445</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>82894</v>
+        <v>83384</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1639571619024626</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.133102301166984</v>
+        <v>0.1346810907127268</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1977879901046795</v>
+        <v>0.1989577558288756</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>184</v>
@@ -2199,19 +2199,19 @@
         <v>127483</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>107231</v>
+        <v>109295</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>147333</v>
+        <v>149668</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1612114239204498</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1356017357260191</v>
+        <v>0.1382117989906189</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1863130947712592</v>
+        <v>0.1892662317746182</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>82058</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>66268</v>
+        <v>65094</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103144</v>
+        <v>103243</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2207774623165746</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1782951529029249</v>
+        <v>0.1751372128730204</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2775092138508672</v>
+        <v>0.2777759632858159</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>173</v>
@@ -2249,19 +2249,19 @@
         <v>117337</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>100035</v>
+        <v>100557</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>135640</v>
+        <v>133804</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2799706368551136</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2386888372467023</v>
+        <v>0.2399326930339747</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3236425880018112</v>
+        <v>0.319261754948879</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>249</v>
@@ -2270,19 +2270,19 @@
         <v>199395</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>173423</v>
+        <v>174517</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>227883</v>
+        <v>223245</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2521491510414088</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2193065925532958</v>
+        <v>0.2206889958056329</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2881746218332343</v>
+        <v>0.282310014120145</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>208467</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>181890</v>
+        <v>183524</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>234645</v>
+        <v>231829</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5608835808200253</v>
+        <v>0.5608835808200252</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4893783846243818</v>
+        <v>0.4937742740118036</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6313159235104812</v>
+        <v>0.6237385594726292</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>236</v>
@@ -2320,19 +2320,19 @@
         <v>190952</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>170396</v>
+        <v>170376</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>211899</v>
+        <v>210127</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4556195501485528</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.406571575176205</v>
+        <v>0.4065250992344639</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5055995454689315</v>
+        <v>0.5013723121201947</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>371</v>
@@ -2341,19 +2341,19 @@
         <v>399419</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>366504</v>
+        <v>367827</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>433519</v>
+        <v>432463</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5050948783236454</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4634705526104958</v>
+        <v>0.4651436075633253</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5482166504210978</v>
+        <v>0.5468805155826635</v>
       </c>
     </row>
     <row r="27">
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5444</v>
+        <v>5050</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007402208209428653</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02647106153932752</v>
+        <v>0.02455242400097587</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2466,19 +2466,19 @@
         <v>1356</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3629</v>
+        <v>3910</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.005980227482155849</v>
+        <v>0.005980227482155848</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001886234959460026</v>
+        <v>0.001904889253626476</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01599888337517782</v>
+        <v>0.01723815292577069</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -2487,19 +2487,19 @@
         <v>2879</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6553</v>
+        <v>6390</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006656434079320618</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00216748772622093</v>
+        <v>0.002148415554235868</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0151518856012041</v>
+        <v>0.01477495605565378</v>
       </c>
     </row>
     <row r="29">
@@ -2516,19 +2516,19 @@
         <v>6564</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11206</v>
+        <v>12262</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03191529675234628</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01664013144166633</v>
+        <v>0.01663621101797883</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05448595491105063</v>
+        <v>0.05961939026609746</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -2537,19 +2537,19 @@
         <v>9097</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5911</v>
+        <v>5986</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13612</v>
+        <v>13748</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04010821206332224</v>
+        <v>0.04010821206332223</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02606003126994789</v>
+        <v>0.02639051700324225</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06001188714866244</v>
+        <v>0.06061260564281507</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>33</v>
@@ -2558,19 +2558,19 @@
         <v>15661</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10774</v>
+        <v>10871</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21819</v>
+        <v>21707</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03621216531877917</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02491278977058307</v>
+        <v>0.02513679791516225</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05045075546422143</v>
+        <v>0.05019109385500003</v>
       </c>
     </row>
     <row r="30">
@@ -2587,19 +2587,19 @@
         <v>10947</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6304</v>
+        <v>6666</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17047</v>
+        <v>17755</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05322672274226188</v>
+        <v>0.05322672274226187</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03065294837606558</v>
+        <v>0.03241088136078085</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08288539281954817</v>
+        <v>0.08633198348458934</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>32</v>
@@ -2608,19 +2608,19 @@
         <v>14291</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9902</v>
+        <v>9668</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20994</v>
+        <v>21372</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.06300606127018041</v>
+        <v>0.06300606127018039</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04365367352449239</v>
+        <v>0.04262289983079443</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09255614138877931</v>
+        <v>0.09422130168899563</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>50</v>
@@ -2629,19 +2629,19 @@
         <v>25238</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18642</v>
+        <v>19271</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>34578</v>
+        <v>33863</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05835560919185385</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0431037332443145</v>
+        <v>0.04455781102132871</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07995089508801315</v>
+        <v>0.07829842848444889</v>
       </c>
     </row>
     <row r="31">
@@ -2658,19 +2658,19 @@
         <v>154750</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>141864</v>
+        <v>143116</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>165495</v>
+        <v>165257</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.7524375205999273</v>
+        <v>0.7524375205999274</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6897800468264073</v>
+        <v>0.6958694462127382</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8046802118797467</v>
+        <v>0.8035258049609961</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>395</v>
@@ -2679,19 +2679,19 @@
         <v>180884</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>170990</v>
+        <v>169594</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>188964</v>
+        <v>189379</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.7974666808213861</v>
+        <v>0.7974666808213859</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7538475979508584</v>
+        <v>0.7476946625754152</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.8330899476337973</v>
+        <v>0.8349216101994095</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>609</v>
@@ -2700,19 +2700,19 @@
         <v>335634</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>317323</v>
+        <v>321402</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>348650</v>
+        <v>350536</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7760535810356122</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7337162418551932</v>
+        <v>0.7431468113855615</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.806150010263188</v>
+        <v>0.8105101955784523</v>
       </c>
     </row>
     <row r="32">
@@ -2729,19 +2729,19 @@
         <v>31882</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23377</v>
+        <v>22648</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>44638</v>
+        <v>43359</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1550182516960358</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1136647168435088</v>
+        <v>0.1101218928089078</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2170438352510843</v>
+        <v>0.2108241981658964</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>39</v>
@@ -2750,19 +2750,19 @@
         <v>21194</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15285</v>
+        <v>14970</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30211</v>
+        <v>29560</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.09343881836295549</v>
+        <v>0.09343881836295548</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06738525717500149</v>
+        <v>0.06599921499097336</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1331922892710945</v>
+        <v>0.1303220288052709</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>73</v>
@@ -2771,19 +2771,19 @@
         <v>53076</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>41883</v>
+        <v>41551</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>69317</v>
+        <v>67671</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1227222103744341</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09684091530562153</v>
+        <v>0.09607469517768012</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1602742258873981</v>
+        <v>0.156468710869338</v>
       </c>
     </row>
     <row r="33">
@@ -2875,19 +2875,19 @@
         <v>14035</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9440</v>
+        <v>9274</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21347</v>
+        <v>22097</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05184529467916051</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03486987710452358</v>
+        <v>0.03425955103674208</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07885628127334635</v>
+        <v>0.08162732679066936</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>51</v>
@@ -2896,19 +2896,19 @@
         <v>20558</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>15546</v>
+        <v>15451</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>27238</v>
+        <v>27407</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.07794633783497212</v>
+        <v>0.07794633783497211</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05894341307253427</v>
+        <v>0.05858240138836195</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1032724072964748</v>
+        <v>0.1039112638537237</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>75</v>
@@ -2917,19 +2917,19 @@
         <v>34593</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>26769</v>
+        <v>26384</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>42924</v>
+        <v>43946</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.06472594599174823</v>
+        <v>0.06472594599174822</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05008598910048042</v>
+        <v>0.04936535527478474</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08031240149716895</v>
+        <v>0.08222560787224026</v>
       </c>
     </row>
     <row r="35">
@@ -2946,19 +2946,19 @@
         <v>31920</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23719</v>
+        <v>23956</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>41814</v>
+        <v>42236</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1179150343277231</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08761967579988655</v>
+        <v>0.088492910778375</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1544619723595487</v>
+        <v>0.1560199368029658</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>66</v>
@@ -2967,19 +2967,19 @@
         <v>28893</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>22753</v>
+        <v>22149</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>35845</v>
+        <v>36673</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1095451376291207</v>
+        <v>0.1095451376291206</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08626693724364345</v>
+        <v>0.08397627634170203</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1359058907129136</v>
+        <v>0.1390427959450955</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>118</v>
@@ -2988,19 +2988,19 @@
         <v>60813</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>49493</v>
+        <v>50234</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>72002</v>
+        <v>71817</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1137845587657503</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09260424411855908</v>
+        <v>0.09399150097225883</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1347196316779313</v>
+        <v>0.1343740349277466</v>
       </c>
     </row>
     <row r="36">
@@ -3017,19 +3017,19 @@
         <v>47475</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>36803</v>
+        <v>37404</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>57968</v>
+        <v>58048</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1753735383121393</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1359504505141444</v>
+        <v>0.138173059052851</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2141356312911649</v>
+        <v>0.2144316053597186</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>98</v>
@@ -3038,19 +3038,19 @@
         <v>49552</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>40754</v>
+        <v>40791</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>59685</v>
+        <v>59365</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1878745660102877</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1545160483787159</v>
+        <v>0.154656629018322</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2262926852701806</v>
+        <v>0.225079997406899</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>170</v>
@@ -3059,19 +3059,19 @@
         <v>97027</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>83935</v>
+        <v>82442</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>114045</v>
+        <v>111264</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1815426932331754</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1570478406848142</v>
+        <v>0.15425374335782</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2133843785098315</v>
+        <v>0.2081810290947951</v>
       </c>
     </row>
     <row r="37">
@@ -3088,19 +3088,19 @@
         <v>86659</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>74907</v>
+        <v>73571</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>102186</v>
+        <v>101424</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3201215331491006</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2767095506806366</v>
+        <v>0.2717742612997845</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3774793947192308</v>
+        <v>0.3746641098214239</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>133</v>
@@ -3109,19 +3109,19 @@
         <v>81635</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>69849</v>
+        <v>70096</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>94893</v>
+        <v>94575</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.3095147962544085</v>
+        <v>0.3095147962544084</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.264829557485359</v>
+        <v>0.2657654224848665</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3597853760039656</v>
+        <v>0.3585784150974833</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>255</v>
@@ -3130,19 +3130,19 @@
         <v>168294</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>149996</v>
+        <v>151851</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>186712</v>
+        <v>186803</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.3148871952458483</v>
+        <v>0.3148871952458484</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2806520210327504</v>
+        <v>0.2841227348562573</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3493488998043442</v>
+        <v>0.3495188317975477</v>
       </c>
     </row>
     <row r="38">
@@ -3159,19 +3159,19 @@
         <v>90618</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>74492</v>
+        <v>76473</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>103165</v>
+        <v>105193</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3347445995318764</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2751755123552229</v>
+        <v>0.2824937792797286</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3810937260207005</v>
+        <v>0.3885878782039379</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>112</v>
@@ -3180,19 +3180,19 @@
         <v>83113</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>71101</v>
+        <v>70574</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>96421</v>
+        <v>96744</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.3151191622712111</v>
+        <v>0.315119162271211</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2695757293048926</v>
+        <v>0.2675782778630064</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3655780263439663</v>
+        <v>0.3668005413005469</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>213</v>
@@ -3201,19 +3201,19 @@
         <v>173730</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>154950</v>
+        <v>153732</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>194535</v>
+        <v>192696</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3250596067634777</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2899211955664327</v>
+        <v>0.2876416572660535</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3639869893784103</v>
+        <v>0.3605462792427172</v>
       </c>
     </row>
     <row r="39">
@@ -3305,19 +3305,19 @@
         <v>11904</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6006</v>
+        <v>6153</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>19965</v>
+        <v>20587</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01656040477311361</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008354748467561899</v>
+        <v>0.008559655389628008</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02777461169744205</v>
+        <v>0.02863962260256499</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>21</v>
@@ -3326,19 +3326,19 @@
         <v>16999</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10695</v>
+        <v>10549</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>25834</v>
+        <v>26556</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.02207946841121806</v>
+        <v>0.02207946841121805</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01389090677593861</v>
+        <v>0.01370193024999003</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03355460703739489</v>
+        <v>0.03449224647529132</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>32</v>
@@ -3347,19 +3347,19 @@
         <v>28903</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>19303</v>
+        <v>19901</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>41805</v>
+        <v>41285</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.01941467078522074</v>
+        <v>0.01941467078522075</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01296606369713756</v>
+        <v>0.01336771338741868</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02808097320807586</v>
+        <v>0.02773136111766515</v>
       </c>
     </row>
     <row r="41">
@@ -3376,19 +3376,19 @@
         <v>24468</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15897</v>
+        <v>16458</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>35830</v>
+        <v>36004</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.0340391053161179</v>
+        <v>0.03403910531611789</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02211580009564516</v>
+        <v>0.02289647693980885</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04984545394823413</v>
+        <v>0.05008757952070138</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>39</v>
@@ -3397,19 +3397,19 @@
         <v>33411</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>23423</v>
+        <v>23319</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>46338</v>
+        <v>45271</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04339523732048597</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03042248660380125</v>
+        <v>0.0302877168370692</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06018501658325257</v>
+        <v>0.05879975888543928</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>63</v>
@@ -3418,19 +3418,19 @@
         <v>57879</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>45096</v>
+        <v>44203</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>73900</v>
+        <v>73970</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03887776841840231</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03029128129347865</v>
+        <v>0.02969165169621087</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04963931926706384</v>
+        <v>0.04968637429953902</v>
       </c>
     </row>
     <row r="42">
@@ -3447,19 +3447,19 @@
         <v>61531</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>46743</v>
+        <v>47001</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>79678</v>
+        <v>80084</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08560124193372494</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06502790610399857</v>
+        <v>0.0653873097512174</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1108459548190847</v>
+        <v>0.1114109938914224</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>105</v>
@@ -3468,19 +3468,19 @@
         <v>82751</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>68275</v>
+        <v>67574</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>98807</v>
+        <v>100930</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.107480494191303</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08867744188492541</v>
+        <v>0.08776722356213894</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1283344917324632</v>
+        <v>0.1310914695529524</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>159</v>
@@ -3489,19 +3489,19 @@
         <v>144283</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>123691</v>
+        <v>122330</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>168672</v>
+        <v>169454</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.0969164233094142</v>
+        <v>0.09691642330941422</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08308498132879842</v>
+        <v>0.08217077676809281</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1132987000149798</v>
+        <v>0.1138243078626932</v>
       </c>
     </row>
     <row r="43">
@@ -3518,19 +3518,19 @@
         <v>328886</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>297031</v>
+        <v>297979</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>359087</v>
+        <v>363297</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4575398383825843</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4132247049652197</v>
+        <v>0.4145426891373038</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4995558019975059</v>
+        <v>0.5054130007045795</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>418</v>
@@ -3539,19 +3539,19 @@
         <v>333245</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>308391</v>
+        <v>307445</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>360932</v>
+        <v>361593</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4328297305068236</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.4005484711409494</v>
+        <v>0.3993199308377717</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4687913346181592</v>
+        <v>0.4696492279256313</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>699</v>
@@ -3560,19 +3560,19 @@
         <v>662130</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>624465</v>
+        <v>622421</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>703410</v>
+        <v>704963</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.4447606378351689</v>
+        <v>0.444760637835169</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4194605983495177</v>
+        <v>0.4180877603873467</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4724888394469389</v>
+        <v>0.4735320386382894</v>
       </c>
     </row>
     <row r="44">
@@ -3589,19 +3589,19 @@
         <v>292025</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>262149</v>
+        <v>262832</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>323524</v>
+        <v>325209</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4062594095944592</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3646968583034285</v>
+        <v>0.3656473618989191</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4500812149830341</v>
+        <v>0.452425143232512</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>374</v>
@@ -3610,19 +3610,19 @@
         <v>303514</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>279598</v>
+        <v>279862</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>329841</v>
+        <v>331017</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3942150695701693</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3631512082056308</v>
+        <v>0.3634945536928643</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4284083207173155</v>
+        <v>0.4299359425271689</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>602</v>
@@ -3631,19 +3631,19 @@
         <v>595539</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>552697</v>
+        <v>556835</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>632311</v>
+        <v>639140</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.4000304996517937</v>
+        <v>0.4000304996517938</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3712531567595773</v>
+        <v>0.374032861150684</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.424730925927121</v>
+        <v>0.429317582363261</v>
       </c>
     </row>
     <row r="45">
@@ -3735,19 +3735,19 @@
         <v>14623</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8120</v>
+        <v>8439</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>24022</v>
+        <v>25259</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01832284042213132</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01017428679514591</v>
+        <v>0.01057465244908989</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0301002328143978</v>
+        <v>0.03164981927902057</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>20</v>
@@ -3756,19 +3756,19 @@
         <v>14126</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>8969</v>
+        <v>8441</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>21281</v>
+        <v>21532</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01700456671809932</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01079607663808596</v>
+        <v>0.01016117187340724</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02561709674008138</v>
+        <v>0.02591977881678643</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>34</v>
@@ -3777,19 +3777,19 @@
         <v>28749</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>20292</v>
+        <v>20616</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>40936</v>
+        <v>41145</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01765049200015025</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01245860384150825</v>
+        <v>0.01265701802952761</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02513249361604285</v>
+        <v>0.02526086621039052</v>
       </c>
     </row>
     <row r="47">
@@ -3806,19 +3806,19 @@
         <v>57652</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>44410</v>
+        <v>44616</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>72467</v>
+        <v>72384</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.07223930833010996</v>
+        <v>0.07223930833010997</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.05564688741720019</v>
+        <v>0.05590412270832426</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.09080198345478273</v>
+        <v>0.09069849662573504</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>145</v>
@@ -3827,19 +3827,19 @@
         <v>101412</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>86766</v>
+        <v>86200</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>117538</v>
+        <v>117376</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1220777497889339</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1044469094178244</v>
+        <v>0.1037655335189042</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1414894413630414</v>
+        <v>0.1412948348824153</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>209</v>
@@ -3848,19 +3848,19 @@
         <v>159064</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>139159</v>
+        <v>139260</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>182590</v>
+        <v>182386</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09765800352697848</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.08543681680554568</v>
+        <v>0.08549872374220135</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1121016431657198</v>
+        <v>0.1119760413959737</v>
       </c>
     </row>
     <row r="48">
@@ -3877,19 +3877,19 @@
         <v>133042</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>114355</v>
+        <v>113964</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>154710</v>
+        <v>153396</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1667046421824271</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1432886207497743</v>
+        <v>0.1427991018945147</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1938545310384569</v>
+        <v>0.1922084642446449</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>264</v>
@@ -3898,19 +3898,19 @@
         <v>192230</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>170780</v>
+        <v>171685</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>212233</v>
+        <v>213490</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.2314013851284062</v>
+        <v>0.2314013851284063</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2055812634898569</v>
+        <v>0.2066698333925295</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2554811639331031</v>
+        <v>0.256994408564688</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>412</v>
@@ -3919,19 +3919,19 @@
         <v>325272</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>293805</v>
+        <v>294590</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>354613</v>
+        <v>354318</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.1997013961144833</v>
+        <v>0.1997013961144832</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1803823645951791</v>
+        <v>0.1808640644724589</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2177157418777182</v>
+        <v>0.2175343259126925</v>
       </c>
     </row>
     <row r="49">
@@ -3948,19 +3948,19 @@
         <v>350427</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>317917</v>
+        <v>322367</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>378709</v>
+        <v>380826</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4390922025458027</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3983562629777502</v>
+        <v>0.4039325520802703</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4745294016512598</v>
+        <v>0.4771827683271404</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>396</v>
@@ -3969,19 +3969,19 @@
         <v>317772</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>292556</v>
+        <v>293540</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>343476</v>
+        <v>341425</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.3825266732480461</v>
+        <v>0.3825266732480462</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3521721633412186</v>
+        <v>0.3533564815108722</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4134685480208137</v>
+        <v>0.4109988482952134</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>741</v>
@@ -3990,19 +3990,19 @@
         <v>668199</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>630886</v>
+        <v>627474</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>707200</v>
+        <v>706081</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.4102425454180387</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3873339547665367</v>
+        <v>0.3852390251634665</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.434186846399473</v>
+        <v>0.4335003022315896</v>
       </c>
     </row>
     <row r="50">
@@ -4019,19 +4019,19 @@
         <v>242327</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>215515</v>
+        <v>215902</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>276703</v>
+        <v>274455</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.3036410065195288</v>
+        <v>0.3036410065195287</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.270044128271848</v>
+        <v>0.2705296115169312</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.346714697103619</v>
+        <v>0.3438973082141715</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>236</v>
@@ -4040,19 +4040,19 @@
         <v>205179</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>181729</v>
+        <v>182133</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>228310</v>
+        <v>226796</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.2469896251165143</v>
+        <v>0.2469896251165144</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2187611711860981</v>
+        <v>0.2192471351051565</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2748338874922571</v>
+        <v>0.2730120965511147</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>427</v>
@@ -4061,19 +4061,19 @@
         <v>447506</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>410783</v>
+        <v>411522</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>485195</v>
+        <v>485948</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2747475629403493</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2522012163039454</v>
+        <v>0.2526550018617903</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2978867594804017</v>
+        <v>0.298348867255615</v>
       </c>
     </row>
     <row r="51">
@@ -4165,19 +4165,19 @@
         <v>72336</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>56372</v>
+        <v>56188</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>91411</v>
+        <v>90453</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02050727135559764</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01598148284204968</v>
+        <v>0.01592931286182438</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.0259147761920572</v>
+        <v>0.02564327956102475</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>153</v>
@@ -4186,19 +4186,19 @@
         <v>90032</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>75886</v>
+        <v>76862</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>109315</v>
+        <v>109663</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.02419470086168905</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.02039337434595833</v>
+        <v>0.02065557855445676</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02937678458034629</v>
+        <v>0.02947043509447377</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>234</v>
@@ -4207,19 +4207,19 @@
         <v>162368</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>139381</v>
+        <v>140496</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>186951</v>
+        <v>187414</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02240027465368698</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.0192290338956017</v>
+        <v>0.01938284247682797</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02579170923085428</v>
+        <v>0.02585565622358517</v>
       </c>
     </row>
     <row r="53">
@@ -4236,19 +4236,19 @@
         <v>174453</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>150327</v>
+        <v>149940</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>200861</v>
+        <v>201660</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.04945716939856679</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.04261763708145992</v>
+        <v>0.04250781661646494</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.05694376329905727</v>
+        <v>0.05717044974537643</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>406</v>
@@ -4257,19 +4257,19 @@
         <v>251908</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>227060</v>
+        <v>226516</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>280958</v>
+        <v>280571</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.06769664338014497</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.06101898733836493</v>
+        <v>0.0608728922033515</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.0755033928868598</v>
+        <v>0.07539930933574421</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>615</v>
@@ -4278,19 +4278,19 @@
         <v>426361</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>393805</v>
+        <v>391548</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>465395</v>
+        <v>465659</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.05882070688328483</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.05432930528124727</v>
+        <v>0.05401793831206385</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.06420584495354166</v>
+        <v>0.06424222003447892</v>
       </c>
     </row>
     <row r="54">
@@ -4307,19 +4307,19 @@
         <v>442512</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>402492</v>
+        <v>404490</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>480319</v>
+        <v>480577</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1254515817034188</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1141058826997634</v>
+        <v>0.1146722952826898</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1361697782480545</v>
+        <v>0.1362429388920702</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>895</v>
@@ -4328,19 +4328,19 @@
         <v>577978</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>537388</v>
+        <v>543666</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>615503</v>
+        <v>618578</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1553231252008658</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.144415248794757</v>
+        <v>0.146102438565805</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1654075218207767</v>
+        <v>0.1662338608054157</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1389</v>
@@ -4349,19 +4349,19 @@
         <v>1020490</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>967006</v>
+        <v>969647</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1072649</v>
+        <v>1078381</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1407866356390328</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1334079779149192</v>
+        <v>0.1337724074166155</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1479824987417615</v>
+        <v>0.1487733264796227</v>
       </c>
     </row>
     <row r="55">
@@ -4378,19 +4378,19 @@
         <v>1597285</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1531140</v>
+        <v>1535966</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1661490</v>
+        <v>1665028</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.4528281405826163</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.4340759855394531</v>
+        <v>0.4354443829463122</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.4710302334529722</v>
+        <v>0.4720330781072427</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>2432</v>
@@ -4399,19 +4399,19 @@
         <v>1653945</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1602056</v>
+        <v>1602070</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1711186</v>
+        <v>1705942</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.4444737656551407</v>
+        <v>0.4444737656551408</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.4305295023060929</v>
+        <v>0.4305331938547898</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.459856669520107</v>
+        <v>0.4584472439319354</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>4014</v>
@@ -4420,19 +4420,19 @@
         <v>3251230</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>3167868</v>
+        <v>3164293</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>3334903</v>
+        <v>3329053</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.4485392831915635</v>
+        <v>0.4485392831915636</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.4370387106920258</v>
+        <v>0.4365454440794634</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.460082817380737</v>
+        <v>0.4592757341632313</v>
       </c>
     </row>
     <row r="56">
@@ -4449,19 +4449,19 @@
         <v>1240767</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1172042</v>
+        <v>1177753</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1302162</v>
+        <v>1309673</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3517558369598005</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3322723742670162</v>
+        <v>0.3338912523970787</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3691610905217382</v>
+        <v>0.3712905658429888</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1458</v>
@@ -4470,19 +4470,19 @@
         <v>1147268</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1094959</v>
+        <v>1099062</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1199004</v>
+        <v>1197368</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3083117649021594</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2942545034489749</v>
+        <v>0.2953569806094108</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3222149973012177</v>
+        <v>0.3217753898075248</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2461</v>
@@ -4491,19 +4491,19 @@
         <v>2388036</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2310937</v>
+        <v>2309125</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2469965</v>
+        <v>2483391</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.3294530996324318</v>
+        <v>0.3294530996324317</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.318816557568889</v>
+        <v>0.3185666122896412</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.340756070837472</v>
+        <v>0.3426083605032819</v>
       </c>
     </row>
     <row r="57">
